--- a/medicine/Enfance/Foire_du_livre_de_jeunesse_de_Bologne/Foire_du_livre_de_jeunesse_de_Bologne.xlsx
+++ b/medicine/Enfance/Foire_du_livre_de_jeunesse_de_Bologne/Foire_du_livre_de_jeunesse_de_Bologne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Foire du livre de jeunesse de Bologne (en italien, La fiera del libro per ragazzi, en anglais The Bologna Children's Book Fair) est le plus important salon international consacré à la littérature pour la jeunesse.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1963, elle a lieu tous les ans à Bologne pendant quatre jours en mars ou en avril. Elle est organisée par le groupe BolognaFiere (connu sous le nom de Fiere di Bologna avant 2002)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1963, elle a lieu tous les ans à Bologne pendant quatre jours en mars ou en avril. Elle est organisée par le groupe BolognaFiere (connu sous le nom de Fiere di Bologna avant 2002).
 La plupart des exposants (1 300 venant de 67 pays en 2009) sont des éditeurs ou des fabricants de livres (imprimeurs, packageurs). L'accès de la foire est réservé aux professionnels impliqués dans le livre jeunesse ou ses dérivés : auteurs, illustrateurs, traducteurs, éditeurs, agents, libraires, bibliothécaires, journalistes spécialisés, producteurs de télévision, etc. Les participants visent avant tout à vendre et à acheter des droits pour des traductions et des produits dérivés.
 Outre son aspect commercial, la foire est également connue pour le prix BolognaRagazzi décerné chaque année par un jury constitué de personnalités internationales reconnues pour leur expertise dans le domaine de la littérature jeunesse. Quatre catégories d'œuvres sont récompensées tous les ans : Fiction, Non fiction pour les documentaires, New Horizons pour les éditeurs des pays arabes, d'Amérique latine, d'Asie et d'Afrique, Opera prima pour les premières œuvres. D'autres récompenses sont parfois décernées de manière exceptionnelle (musique en 2006, poésie en 2008, etc.). En plus du vainqueur dans chaque catégorie, le jury décerne très régulièrement des "mentions" ou des "mentions spéciales" à des œuvres qu'il souhaite mettre en lumière.
-Entre 1997 et 2003, le prix New Media Prize a été décerné en collaboration avec la revue Children's Software Revue (devenue Children's Technology Review) pour récompenser des produits interactifs destinés à la jeunesse[2].
+Entre 1997 et 2003, le prix New Media Prize a été décerné en collaboration avec la revue Children's Software Revue (devenue Children's Technology Review) pour récompenser des produits interactifs destinés à la jeunesse.
 D'autres prix importants sont remis à l'occasion de la foire, mais sans lien direct avec elle : le prix Hans Christian Andersen (bisannuel) et le Prix Astrid Lindgren Memorial.
 De nombreux éditeurs et auteurs français ont reçu le prix BolognaRagazzi.
 </t>
@@ -548,7 +562,9 @@
           <t>Quelques lauréats, jusqu'en 1997</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1967 :  Tomi Ungerer : "Mention" Prix Critique en herbe pour Jean de la Lune
 1969 :  Quentin Blake : "Mention" Prix Critique en herbe pour Patrick
@@ -688,9 +704,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jusqu'en 2013
-2014 - 2019
-2014[6]
+          <t>2014 - 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2014
 Fiction Award : Le Noël de Marguerite, de India Desjardins, ill. de Pascal Blanchet, éd. La Pastèque (Canada)
 Mentions :
 The Promise, de Nicola Davies, ill. de Laura Carlin, éd. Walker Books Ltd (Royaume-Uni) ( Royaume-Uni)
@@ -720,7 +740,7 @@
 Mentions :
 ABC Actions, de Peapod Labs LLC (États-Unis)
 Double double, de And Then Story Designers / Coral Gables (États-Unis / Venezuela).
-2015[7]
+2015
 Fiction Award : Flashlight, de Lizi Boyd, éd. Chronicle Books (États-Unis), publié en France chez Albin Michel-Jeunesse sous le titre Promenade de nuit.
 Mentions :
 La Chambre du lion, de Adrien Parlange, éd. Albin Michel-Jeunesse ( France)
@@ -753,13 +773,13 @@
 Mentions Non Fiction :
 Forme in gioco, créé par S. Borando e A. Beozzi, Development P. Chiarinotti, Music A. Perri ; Illustrations Silvia Borando, Minibombo, Reggio Emilia (Italie)
 Toca Nature, Toca Boca, éd. Toca Boca, Stockholm (Suède)
-Book&amp;Seeds[8] : Gaëtan Dorémus, Frigo vide, Seuil Jeunesse, Paris,  France, 2009
+Book&amp;Seeds : Gaëtan Dorémus, Frigo vide, Seuil Jeunesse, Paris,  France, 2009
 Mentions :
 Alain Serres (texte) et Aurélia Fronty (illustrations), Une cuisine qui sent bon. Les soupes du monde, Rue du Monde,  France, 2012
 Martine Gasparov (texte) et Violaine Leroy (illustrations), A table ! Petite philosophie du repas, Gallimard Jeunesse, Paris,  France, 2014
 Katarzyna Bogucka et Szymon Tomiło (texte), Katarzyna Bogucka (illustrations), WYTWÓRNIK KULINARNY, Wytwórnia, Warsaw, Poland, 2014
 Young-Eun Ahn (texte) et Seong-Hee Kim (illustrations), The Largest Cake In The World, Junior Gimm-Young Publishers Inc., Gyeonggi-do, South Korea, 2014
-2016[9]
+2016
 Fiction Award : Mon tout petit, de Germano Zullo, illustrations de Albertine Zullo, éd. La Joie de Lire ( Suisse)
 Mentions :
 Enfantillages, de Gérard DuBois, éditions du Rouergue ( France)
@@ -782,7 +802,7 @@
 Beautifuls Birds texte de Jean Roussen, ill. de Emmanuelle Walker, Flying Eye Books (Royaume-Uni) ( Royaume-Uni) (traduit Beaux Oiseaux, éd. Gautier-Languereau)
 La mégapole de Cléa Dieudonné, éditions l'Agrume ( France)
 Le case degli altri bambini de Claudia Palmarucci, Orecchio Acerbo Editore ( Italie)
-2017[10]
+2017
 Fiction Award :  A Child of Books, de Oliver Jeffers et Sam Winston, Walker Books Ltd, London, UK, 2016  ( Royaume-Uni) Traduit sous le titre L'Enfant des livres, Kaléidoscope, 2016
 Mentions :
 Un Jardin, texte de María José Ferrada, illustrations de Isidro Ferrer, A buen paso, Mataró, Spagna, 2016 ( Espagne)
@@ -859,9 +879,43 @@
 Mentions :
 Mes animaux tout doux du jardin, texte et illustrations Xavier Deneux (Bayard, Paris, France) ( France)
 We Sang You Home, texte Richard Van Camp, illustrations Julie Flett (Orca Book Publishers, Victoria, Canada)
-Kominiarz /Piekarz (Chimney sweeper/Baker), texte et Illustrations Dominika Czerniak-Chojnacka  (Wydawnictwo Dwie Siostry, Warsaw, Poland)
-Depuis 2020
-2020
+Kominiarz /Piekarz (Chimney sweeper/Baker), texte et Illustrations Dominika Czerniak-Chojnacka  (Wydawnictwo Dwie Siostry, Warsaw, Poland)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Foire_du_livre_de_jeunesse_de_Bologne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_du_livre_de_jeunesse_de_Bologne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des lauréats et des mentions du Prix BolognaRagazzi depuis 1998[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Depuis 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020
 Fiction :  Meine liebsten Dinge müssen mit de  Sepideh Sarihi, ill. de Julie Völk (Beltz &amp; Gelberg,  Allemagne)
 Mentions :
  Le Roi de la Lune  de Bérengère Cournut, ill. de Donatien Mary (éditions 2024,  France)
@@ -901,7 +955,7 @@
 Féminin féminin. Las mujeres de la Nouvelle Vague, texte et ill. de Josefina Schargorodsky (Tres Tigres Tristes/Avenauta ,  Espagne)
 Cinematográfico, texte de Gema Sirvent, ill. de Ana Pez (Editorial Libre Albedrío,  Espagne)
 Hello Monsieur Hulot, et Monsieur Hulot à la plage et Hulot domino, texte et ill. de David Merveille  (Éditions du Rouergue,  France)
-2021[11]
+2021
 Fiction : Home de Lin Lian-En, Yes Creative Ltd./Papa Publishing House (Taiwan)
 Mentions :
 Ha visto la mia coda?, Alberto Lot, éd Minibombo  Italie
@@ -935,7 +989,7 @@
 Mentions :
 Gamayun Tales I: An Anthology of Modern Russian Folk Tales de Alexander Utkin, éd. Nobrow  Royaume-Uni
 Spirou ou l'espoir malgré tout, tome 1 : Un mauvais départ, de Émile Bravo, éd. Dupuis  Belgique
-2022[12]
+2022
 Fiction : A qui appartiennent les nuages ? de Mario Brassard et Gérard DuBois, éditions La Pastèque   Canada
 Mentions :
 ¿Qué tiene un bosque?, Yael Frankel, Claraboya Ediciones. Chili
@@ -966,7 +1020,7 @@
 Sagan um Skarphéðin Dungal sem setti fram nýjar kenningar um eðli alheimsins, Texte Hjörleifur Hjartarson, illustrations Rán Flygenring.Angústúra, éd. Angústúra. Iceland.
 Vom Flaniern und Weltspaziern, Texte Elisabeth Steinkellner, illustrations Michael RoherTyrolia-Verlag, éd. Tyrolia-Verlag. Austria.
 Crossmedia Award : En sortant de l’Ecole Vol. 2. Publisher: éditions Thierry Magnier. Country: France. Author: Roy, Tardieu, Verlaine, Chedid. Extension: Short movies series. Producer: Tant mieux prod.
-2023[13]
+2023
 Fiction : Todo lo que pasó antes de que llegaras de Yael Frankel, éd. Limonero  Argentine
 Mentions :
 Thump! Thump! Thump!, Texte Yu Yi, illustrations by Wang Zumin, éd. 21st Century Publishing Group. Chine
